--- a/Figure_5/Fig.5B_Differentiation.xlsx
+++ b/Figure_5/Fig.5B_Differentiation.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\ICH_DBC_Ivanovitch_Lab\Manuscript\Supplementary data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaym\OneDrive\Documents\GitHub\Supplementary-Data\Figure_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A989D8-795C-47CE-87CE-CD0373979BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C46D9C-9503-4BE3-A03D-DA4FBCC7963A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60840" yWindow="-15795" windowWidth="14160" windowHeight="15195" tabRatio="886" xr2:uid="{62C82088-508E-4B60-89E0-D7EA0C0291F2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23596" windowHeight="15076" tabRatio="886" xr2:uid="{62C82088-508E-4B60-89E0-D7EA0C0291F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fig 4B" sheetId="1" r:id="rId1"/>
-    <sheet name="Fig 4C" sheetId="2" r:id="rId2"/>
-    <sheet name="Fig 4D" sheetId="3" r:id="rId3"/>
-    <sheet name="Fig 4F" sheetId="4" r:id="rId4"/>
-    <sheet name="Fig 4I" sheetId="5" r:id="rId5"/>
+    <sheet name="Fig 5B" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Fig 4B'!$A$1:$H$356</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Fig 5B'!$A$1:$H$356</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -597,7 +593,7 @@
   <dimension ref="A1:J356"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13393,54 +13389,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A421D8E4-EBA9-4A9F-BAA6-6F34E1FD0F05}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEAA994-7925-46E6-98B3-22BF27003952}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0139DFF0-8ED3-440B-84C4-068F8023765A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1AF354-70B0-4F33-8809-90D5967C6B63}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>